--- a/Rssb.xlsx
+++ b/Rssb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suvishod\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA07BCF-19A0-4860-BBD2-B48415BECD2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD860AA-46AB-400B-A1A1-DC1CFAE5FA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34EC761F-E275-480A-B119-1D1276684D10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="389">
   <si>
     <t>MemberType</t>
   </si>
@@ -346,6 +346,861 @@
   </si>
   <si>
     <t>Plumber</t>
+  </si>
+  <si>
+    <t>Matalesh</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>Dharam Pal Chawla</t>
+  </si>
+  <si>
+    <t>Hari Gopal Chawla</t>
+  </si>
+  <si>
+    <t>Dheer Singh</t>
+  </si>
+  <si>
+    <t>Giyan Singh</t>
+  </si>
+  <si>
+    <t>Prakash Chand</t>
+  </si>
+  <si>
+    <t>Atar Singh</t>
+  </si>
+  <si>
+    <t>Seth Pal</t>
+  </si>
+  <si>
+    <t>Kanta Ram</t>
+  </si>
+  <si>
+    <t>Narendra Kumar</t>
+  </si>
+  <si>
+    <t>Angur Singh</t>
+  </si>
+  <si>
+    <t>Harnand</t>
+  </si>
+  <si>
+    <t>Rafal Singh</t>
+  </si>
+  <si>
+    <t>Khileram</t>
+  </si>
+  <si>
+    <t>Yogesh Kumar</t>
+  </si>
+  <si>
+    <t>Jagadish Prasad</t>
+  </si>
+  <si>
+    <t>Biram Pal</t>
+  </si>
+  <si>
+    <t>Harphool Singh</t>
+  </si>
+  <si>
+    <t>Vinod Kumar</t>
+  </si>
+  <si>
+    <t>Bishamber</t>
+  </si>
+  <si>
+    <t>Samay Singh</t>
+  </si>
+  <si>
+    <t>Hemraj</t>
+  </si>
+  <si>
+    <t>Amit Kumar Saini</t>
+  </si>
+  <si>
+    <t>Gopi Chand</t>
+  </si>
+  <si>
+    <t>Saurabh Kumar Sukhija</t>
+  </si>
+  <si>
+    <t>Prem Chand Sukhija</t>
+  </si>
+  <si>
+    <t>Arpit Grover</t>
+  </si>
+  <si>
+    <t>Jagdish Grover</t>
+  </si>
+  <si>
+    <t>Subhash Chand</t>
+  </si>
+  <si>
+    <t>Dilbagh Rai</t>
+  </si>
+  <si>
+    <t>Mulakh Raj</t>
+  </si>
+  <si>
+    <t>Ram Lal</t>
+  </si>
+  <si>
+    <t>Sunahara Singh</t>
+  </si>
+  <si>
+    <t>Banbari</t>
+  </si>
+  <si>
+    <t>Samer Chand</t>
+  </si>
+  <si>
+    <t>Devi Shah</t>
+  </si>
+  <si>
+    <t>Sukkad Singh</t>
+  </si>
+  <si>
+    <t>Chatar Singh</t>
+  </si>
+  <si>
+    <t>Banarasi Dass</t>
+  </si>
+  <si>
+    <t>Lachhu Singh</t>
+  </si>
+  <si>
+    <t>Kundan Lal</t>
+  </si>
+  <si>
+    <t>Roop Chandra</t>
+  </si>
+  <si>
+    <t>Khushhal</t>
+  </si>
+  <si>
+    <t>Madan Lal</t>
+  </si>
+  <si>
+    <t>Govind Ram</t>
+  </si>
+  <si>
+    <t>Bhushan Pal</t>
+  </si>
+  <si>
+    <t>Sumer Chand</t>
+  </si>
+  <si>
+    <t>Vijender Kumar</t>
+  </si>
+  <si>
+    <t>Balbir Singh</t>
+  </si>
+  <si>
+    <t>Janeshwar</t>
+  </si>
+  <si>
+    <t>Dile Ram</t>
+  </si>
+  <si>
+    <t>Balbir</t>
+  </si>
+  <si>
+    <t>Loti Ram</t>
+  </si>
+  <si>
+    <t>Suresh Kumar Chawla</t>
+  </si>
+  <si>
+    <t>Chaman Lal Chawla</t>
+  </si>
+  <si>
+    <t>Ashwani Kumar</t>
+  </si>
+  <si>
+    <t>Kartar Kishan Chaudhary</t>
+  </si>
+  <si>
+    <t>Pahal Singh</t>
+  </si>
+  <si>
+    <t>Mangat Singh</t>
+  </si>
+  <si>
+    <t>Chander Pal</t>
+  </si>
+  <si>
+    <t>Kushal</t>
+  </si>
+  <si>
+    <t>Jhabal Singh</t>
+  </si>
+  <si>
+    <t>Duli Chand</t>
+  </si>
+  <si>
+    <t>Ajuddhi Singh</t>
+  </si>
+  <si>
+    <t>Nathod Singh</t>
+  </si>
+  <si>
+    <t>Ram Chand Grover</t>
+  </si>
+  <si>
+    <t>Rajat Grover</t>
+  </si>
+  <si>
+    <t>Diwan Chand</t>
+  </si>
+  <si>
+    <t>Ajay Jagga</t>
+  </si>
+  <si>
+    <t>Ram Gopal</t>
+  </si>
+  <si>
+    <t>Nathi Ram</t>
+  </si>
+  <si>
+    <t>Gulab Singh</t>
+  </si>
+  <si>
+    <t>Rishioal Singh</t>
+  </si>
+  <si>
+    <t>Ranbeer</t>
+  </si>
+  <si>
+    <t>Kalu Ram</t>
+  </si>
+  <si>
+    <t>Man Singh</t>
+  </si>
+  <si>
+    <t>Mange Ram</t>
+  </si>
+  <si>
+    <t>Bru Pal</t>
+  </si>
+  <si>
+    <t>Balesh Kumar</t>
+  </si>
+  <si>
+    <t>Tej Pal</t>
+  </si>
+  <si>
+    <t>Rajvir</t>
+  </si>
+  <si>
+    <t>Dalel</t>
+  </si>
+  <si>
+    <t>Sachin kakkar</t>
+  </si>
+  <si>
+    <t>Ramesh Kakkar</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>Narender Singh</t>
+  </si>
+  <si>
+    <t>Pappu</t>
+  </si>
+  <si>
+    <t>Shadi Ram</t>
+  </si>
+  <si>
+    <t>Ravi Kant</t>
+  </si>
+  <si>
+    <t>Nem Chand</t>
+  </si>
+  <si>
+    <t>Omkar</t>
+  </si>
+  <si>
+    <t>Amresh</t>
+  </si>
+  <si>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Pritam</t>
+  </si>
+  <si>
+    <t>Molhu</t>
+  </si>
+  <si>
+    <t>Manish Kumar</t>
+  </si>
+  <si>
+    <t>Surender</t>
+  </si>
+  <si>
+    <t>Anuj Kumar</t>
+  </si>
+  <si>
+    <t>Lekh Raj</t>
+  </si>
+  <si>
+    <t>Mukesh Kumar</t>
+  </si>
+  <si>
+    <t>Rohan Kakkar</t>
+  </si>
+  <si>
+    <t>Sachin Kakkar</t>
+  </si>
+  <si>
+    <t>Beer Singh</t>
+  </si>
+  <si>
+    <t>Shibu Ram</t>
+  </si>
+  <si>
+    <t>Satish Kumar</t>
+  </si>
+  <si>
+    <t>Prem Chand</t>
+  </si>
+  <si>
+    <t>Nitin Kakkar</t>
+  </si>
+  <si>
+    <t>Baljeet Singh</t>
+  </si>
+  <si>
+    <t>Sushil Kumar</t>
+  </si>
+  <si>
+    <t>Shubham Kumar</t>
+  </si>
+  <si>
+    <t>Arjun Kumar</t>
+  </si>
+  <si>
+    <t>Yash Pal</t>
+  </si>
+  <si>
+    <t>Karm Singh</t>
+  </si>
+  <si>
+    <t>Mehar Singh</t>
+  </si>
+  <si>
+    <t>Naresh Kumar</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Tara Chand</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>Gopal Singh</t>
+  </si>
+  <si>
+    <t>Pramod Kumar</t>
+  </si>
+  <si>
+    <t>Phool Singh</t>
+  </si>
+  <si>
+    <t>Mukul Kumar</t>
+  </si>
+  <si>
+    <t>Sunil Kumar</t>
+  </si>
+  <si>
+    <t>Ram Chandra</t>
+  </si>
+  <si>
+    <t>Babalu</t>
+  </si>
+  <si>
+    <t>Sushant</t>
+  </si>
+  <si>
+    <t>Rehtu</t>
+  </si>
+  <si>
+    <t>Chidwa</t>
+  </si>
+  <si>
+    <t>Bhartu</t>
+  </si>
+  <si>
+    <t>Sagar Kumar</t>
+  </si>
+  <si>
+    <t>Amarpal</t>
+  </si>
+  <si>
+    <t>Janardhan Das</t>
+  </si>
+  <si>
+    <t>Kanvar Pal</t>
+  </si>
+  <si>
+    <t>Beeru</t>
+  </si>
+  <si>
+    <t>Kasi</t>
+  </si>
+  <si>
+    <t>Soshin</t>
+  </si>
+  <si>
+    <t>Sadhuram</t>
+  </si>
+  <si>
+    <t>Ashkaran Kumar</t>
+  </si>
+  <si>
+    <t>Sardara Singh</t>
+  </si>
+  <si>
+    <t>Mohar Singh</t>
+  </si>
+  <si>
+    <t>Satpal Dabra</t>
+  </si>
+  <si>
+    <t>Nepal Singh</t>
+  </si>
+  <si>
+    <t>Lokesh Kumar</t>
+  </si>
+  <si>
+    <t>Hans Raj</t>
+  </si>
+  <si>
+    <t>Nikhil Arora</t>
+  </si>
+  <si>
+    <t>Yashpal Grover</t>
+  </si>
+  <si>
+    <t>Ajay Kumar</t>
+  </si>
+  <si>
+    <t>Durga Prasad</t>
+  </si>
+  <si>
+    <t>Surender Kumar</t>
+  </si>
+  <si>
+    <t>Ravi Sachdeva</t>
+  </si>
+  <si>
+    <t>Khairati Lal</t>
+  </si>
+  <si>
+    <t>Charan Pal</t>
+  </si>
+  <si>
+    <t>Brijesh Kumar</t>
+  </si>
+  <si>
+    <t>Roshan Lal</t>
+  </si>
+  <si>
+    <t>Seva Ram</t>
+  </si>
+  <si>
+    <t>Ram Pal Singh</t>
+  </si>
+  <si>
+    <t>OmPrakash</t>
+  </si>
+  <si>
+    <t>Amit Sharma</t>
+  </si>
+  <si>
+    <t>Vishwas Kumar</t>
+  </si>
+  <si>
+    <t>Kanwar Pal Singh</t>
+  </si>
+  <si>
+    <t>Surendra Pal</t>
+  </si>
+  <si>
+    <t>RamBhool</t>
+  </si>
+  <si>
+    <t>Dhrampal Singh</t>
+  </si>
+  <si>
+    <t>Sonit</t>
+  </si>
+  <si>
+    <t>Karam Singh</t>
+  </si>
+  <si>
+    <t>Ankush Kumar</t>
+  </si>
+  <si>
+    <t>Jagpal Singh</t>
+  </si>
+  <si>
+    <t>Jayvir</t>
+  </si>
+  <si>
+    <t>Dharam Singh</t>
+  </si>
+  <si>
+    <t>Shubham Sahagal</t>
+  </si>
+  <si>
+    <t>Janeshwar Prashad</t>
+  </si>
+  <si>
+    <t>Happy Kumar</t>
+  </si>
+  <si>
+    <t>Amarnath</t>
+  </si>
+  <si>
+    <t>Gurvender</t>
+  </si>
+  <si>
+    <t>Sewa Ram</t>
+  </si>
+  <si>
+    <t>Jagveer Singh</t>
+  </si>
+  <si>
+    <t>Lekhraj</t>
+  </si>
+  <si>
+    <t>Ankit Pal</t>
+  </si>
+  <si>
+    <t>Jaipal</t>
+  </si>
+  <si>
+    <t>Mithun Kumar</t>
+  </si>
+  <si>
+    <t>Neeraj</t>
+  </si>
+  <si>
+    <t>Shiv Kumar</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Kanvar Singh</t>
+  </si>
+  <si>
+    <t>Pritam Singh</t>
+  </si>
+  <si>
+    <t>RajKumar</t>
+  </si>
+  <si>
+    <t>Harmand</t>
+  </si>
+  <si>
+    <t>Shivam Sachdeva</t>
+  </si>
+  <si>
+    <t>Rajesh Sachdeva</t>
+  </si>
+  <si>
+    <t>Mani Shankar Rai</t>
+  </si>
+  <si>
+    <t>Ashok Rai</t>
+  </si>
+  <si>
+    <t>Lal Chand Grover</t>
+  </si>
+  <si>
+    <t>Vishal Kumar</t>
+  </si>
+  <si>
+    <t>Dharam Beer</t>
+  </si>
+  <si>
+    <t>Rohit Kumar</t>
+  </si>
+  <si>
+    <t>Ichha Ram</t>
+  </si>
+  <si>
+    <t>Sonu Kumar</t>
+  </si>
+  <si>
+    <t>Yuvraj Singh</t>
+  </si>
+  <si>
+    <t>Leelu</t>
+  </si>
+  <si>
+    <t>Kehara Singh</t>
+  </si>
+  <si>
+    <t>Palu</t>
+  </si>
+  <si>
+    <t>Amit Khurana</t>
+  </si>
+  <si>
+    <t>Ramchandra Khurana</t>
+  </si>
+  <si>
+    <t>Navin Singh</t>
+  </si>
+  <si>
+    <t>Gyan Singh</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>Chandra Bhaan</t>
+  </si>
+  <si>
+    <t>Bamula Singh</t>
+  </si>
+  <si>
+    <t>Kishan Lal</t>
+  </si>
+  <si>
+    <t>Punjab Rai</t>
+  </si>
+  <si>
+    <t>Babu Ram</t>
+  </si>
+  <si>
+    <t>Vinit Kumar</t>
+  </si>
+  <si>
+    <t>Guru Dattamal</t>
+  </si>
+  <si>
+    <t>Rameshwar</t>
+  </si>
+  <si>
+    <t>Kabool Chand</t>
+  </si>
+  <si>
+    <t>Salekh Chand</t>
+  </si>
+  <si>
+    <t>Sangru Singh</t>
+  </si>
+  <si>
+    <t>Ramkishan</t>
+  </si>
+  <si>
+    <t>Babulal</t>
+  </si>
+  <si>
+    <t>Chauhal Singh</t>
+  </si>
+  <si>
+    <t>Ranveer Singh</t>
+  </si>
+  <si>
+    <t>Ratan Singh</t>
+  </si>
+  <si>
+    <t>Rakam Singh</t>
+  </si>
+  <si>
+    <t>Sitab Singh</t>
+  </si>
+  <si>
+    <t>Sunhara</t>
+  </si>
+  <si>
+    <t>Atma Ram Arora</t>
+  </si>
+  <si>
+    <t>Mahendra Singh</t>
+  </si>
+  <si>
+    <t>Prem Chand Vishodia</t>
+  </si>
+  <si>
+    <t>Mam Chand Vishodia</t>
+  </si>
+  <si>
+    <t>Neeraj Saini</t>
+  </si>
+  <si>
+    <t>Mam Chand Saini</t>
+  </si>
+  <si>
+    <t>Amar Singh</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>Ram Naresh</t>
+  </si>
+  <si>
+    <t>Hukum Singh</t>
+  </si>
+  <si>
+    <t>Rajender Kumar</t>
+  </si>
+  <si>
+    <t>Tellu Ram</t>
+  </si>
+  <si>
+    <t>Sukhbir</t>
+  </si>
+  <si>
+    <t>Rajneesh Kumar</t>
+  </si>
+  <si>
+    <t>Radhe Shyam</t>
+  </si>
+  <si>
+    <t>Palle Ram</t>
+  </si>
+  <si>
+    <t>Paltu Ram</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar Soni</t>
+  </si>
+  <si>
+    <t>Dayal Chand</t>
+  </si>
+  <si>
+    <t>Sandeep Kumar Takkar</t>
+  </si>
+  <si>
+    <t>Birja Singh Saini</t>
+  </si>
+  <si>
+    <t>Krishan Kataria</t>
+  </si>
+  <si>
+    <t>Purushottam Kataria</t>
+  </si>
+  <si>
+    <t>Raman Aneja</t>
+  </si>
+  <si>
+    <t>Asha Ram</t>
+  </si>
+  <si>
+    <t>Subhash Grover</t>
+  </si>
+  <si>
+    <t>Gulab Ram</t>
+  </si>
+  <si>
+    <t>Ilam Chand</t>
+  </si>
+  <si>
+    <t>Baru Singh</t>
+  </si>
+  <si>
+    <t>Jagpal</t>
+  </si>
+  <si>
+    <t>Joti</t>
+  </si>
+  <si>
+    <t>Hari Chand</t>
+  </si>
+  <si>
+    <t>Vikas Kumar</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Rajesh Devi</t>
+  </si>
+  <si>
+    <t>Padam Singh</t>
+  </si>
+  <si>
+    <t>Sudheer Kumar</t>
+  </si>
+  <si>
+    <t>Vinay Kumar</t>
+  </si>
+  <si>
+    <t>Shailendra Tehri</t>
+  </si>
+  <si>
+    <t>Krishan Lal Tehri</t>
+  </si>
+  <si>
+    <t>Himanshu Chaudhary</t>
+  </si>
+  <si>
+    <t>Deepak Makkar</t>
+  </si>
+  <si>
+    <t>Prakash Chand Makkar</t>
+  </si>
+  <si>
+    <t>Manoj Chugh</t>
+  </si>
+  <si>
+    <t>Surendra Chugh</t>
+  </si>
+  <si>
+    <t>Kuldeep</t>
+  </si>
+  <si>
+    <t>Akal Chand</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Puran Singh</t>
+  </si>
+  <si>
+    <t>Rajpal Singh</t>
+  </si>
+  <si>
+    <t>Raj Pal</t>
+  </si>
+  <si>
+    <t>Dhram Pal</t>
+  </si>
+  <si>
+    <t>Kareshan</t>
+  </si>
+  <si>
+    <t>Chet Ram</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>Ilam Singh</t>
   </si>
 </sst>
 </file>
@@ -697,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F735393D-48C8-4A2F-839F-697A77724CA0}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +1574,7 @@
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,14 +1602,8 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -779,14 +1628,8 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -811,14 +1654,8 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -843,14 +1680,8 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -875,14 +1706,8 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -907,14 +1732,8 @@
       <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -939,14 +1758,8 @@
       <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -971,14 +1784,8 @@
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1003,14 +1810,8 @@
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1035,14 +1836,8 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1067,14 +1862,8 @@
       <c r="I11" t="s">
         <v>7</v>
       </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1099,14 +1888,8 @@
       <c r="I12" t="s">
         <v>7</v>
       </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1131,14 +1914,8 @@
       <c r="I13" t="s">
         <v>7</v>
       </c>
-      <c r="M13">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1163,14 +1940,8 @@
       <c r="I14" t="s">
         <v>7</v>
       </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1195,14 +1966,8 @@
       <c r="I15" t="s">
         <v>7</v>
       </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1227,14 +1992,8 @@
       <c r="I16" t="s">
         <v>7</v>
       </c>
-      <c r="M16">
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1259,14 +2018,8 @@
       <c r="I17" t="s">
         <v>7</v>
       </c>
-      <c r="M17">
-        <v>16</v>
-      </c>
-      <c r="N17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1291,14 +2044,8 @@
       <c r="I18" t="s">
         <v>7</v>
       </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1323,14 +2070,8 @@
       <c r="I19" t="s">
         <v>7</v>
       </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1355,14 +2096,8 @@
       <c r="I20" t="s">
         <v>7</v>
       </c>
-      <c r="M20">
-        <v>19</v>
-      </c>
-      <c r="N20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1387,14 +2122,8 @@
       <c r="I21" t="s">
         <v>7</v>
       </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1419,56 +2148,4547 @@
       <c r="I22" t="s">
         <v>7</v>
       </c>
-      <c r="M22">
-        <v>21</v>
-      </c>
-      <c r="N22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M23">
-        <v>22</v>
-      </c>
-      <c r="N23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M24">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2941</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>7618433127</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2942</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>9997748650</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2943</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>8755910142</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2944</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>7037915546</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2945</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>8006581099</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2946</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>9719356103</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2947</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>9761609657</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2948</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>9639539223</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2950</v>
+      </c>
+      <c r="D31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>9368345071</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2951</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>6398579282</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2952</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>9720998931</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2953</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>9720517188</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2954</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>9758809737</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2955</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>7017731808</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2956</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>9045478442</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2957</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>9997546760</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2958</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>6398363454</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2959</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>9027240595</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2960</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>7088132308</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2961</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>9528987955</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2963</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2964</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2966</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2967</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>9219299643</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2968</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>9058231076</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2969</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>7895668911</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2970</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>9045473129</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2971</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>8755883733</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2972</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>9048473129</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2974</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>8755908305</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2975</v>
+      </c>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>8755012949</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2977</v>
+      </c>
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>9759814803</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2978</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>7078873823</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2979</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>7830932499</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2980</v>
+      </c>
+      <c r="D57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>8755415398</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2981</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>9897100520</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2982</v>
+      </c>
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>9897100520</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>4066</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>9152726411</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>4067</v>
+      </c>
+      <c r="D61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>7906834913</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>4068</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>8859597255</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>4069</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>8755910133</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>4070</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>9720121872</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>4071</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
         <v>23</v>
       </c>
-      <c r="N24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M25">
-        <v>24</v>
-      </c>
-      <c r="N25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M26">
-        <v>25</v>
-      </c>
-      <c r="N26" t="s">
-        <v>75</v>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>7404526935</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>4072</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>9720758339</v>
+      </c>
+      <c r="I66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>4073</v>
+      </c>
+      <c r="D67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>8006160410</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>4075</v>
+      </c>
+      <c r="D68" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>7505181450</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>4077</v>
+      </c>
+      <c r="D69" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>9997394392</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>4078</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <v>9896055249</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>4080</v>
+      </c>
+      <c r="D71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>9720142005</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>4081</v>
+      </c>
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>6362049047</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>4082</v>
+      </c>
+      <c r="D73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E73" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>9720079756</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4083</v>
+      </c>
+      <c r="D74" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" t="s">
+        <v>198</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>8650391385</v>
+      </c>
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>4084</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>9627183156</v>
+      </c>
+      <c r="I75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>4085</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>6395736309</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>4086</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>9719709463</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>4087</v>
+      </c>
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>8273381895</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>4088</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>7668132252</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>4089</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>8954830612</v>
+      </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>4090</v>
+      </c>
+      <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>9837314410</v>
+      </c>
+      <c r="I81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>4091</v>
+      </c>
+      <c r="D82" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>9760868624</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>4092</v>
+      </c>
+      <c r="D83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83">
+        <v>9720075072</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>4093</v>
+      </c>
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>9761800871</v>
+      </c>
+      <c r="I84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>4094</v>
+      </c>
+      <c r="D85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>7500780000</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>4095</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>9758671065</v>
+      </c>
+      <c r="I86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>4096</v>
+      </c>
+      <c r="D87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87">
+        <v>7500780000</v>
+      </c>
+      <c r="I87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>4097</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <v>9149124716</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>4098</v>
+      </c>
+      <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89">
+        <v>7500780000</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>4099</v>
+      </c>
+      <c r="D90" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90">
+        <v>9720075050</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>4100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91">
+        <v>7500780000</v>
+      </c>
+      <c r="I91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>4101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92">
+        <v>8755910285</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>4102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>227</v>
+      </c>
+      <c r="E93" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>7409072471</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>4104</v>
+      </c>
+      <c r="D94" t="s">
+        <v>228</v>
+      </c>
+      <c r="E94" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>6398742025</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>4105</v>
+      </c>
+      <c r="D95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95">
+        <v>9761138626</v>
+      </c>
+      <c r="I95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>4106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" t="s">
+        <v>210</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96">
+        <v>7500780000</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>4107</v>
+      </c>
+      <c r="D97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>9368837077</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>4109</v>
+      </c>
+      <c r="D98" t="s">
+        <v>213</v>
+      </c>
+      <c r="E98" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98">
+        <v>6398742025</v>
+      </c>
+      <c r="I98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>4110</v>
+      </c>
+      <c r="D99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" t="s">
+        <v>221</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99">
+        <v>8006548182</v>
+      </c>
+      <c r="I99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>4121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <v>9758840012</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>4123</v>
+      </c>
+      <c r="D101" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>8969696151</v>
+      </c>
+      <c r="I101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>4124</v>
+      </c>
+      <c r="D102" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" t="s">
+        <v>256</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102">
+        <v>9897188562</v>
+      </c>
+      <c r="I102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>4125</v>
+      </c>
+      <c r="D103" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" t="s">
+        <v>226</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103">
+        <v>8191829996</v>
+      </c>
+      <c r="I103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>4126</v>
+      </c>
+      <c r="D104" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104">
+        <v>8755910132</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>4127</v>
+      </c>
+      <c r="D105" t="s">
+        <v>259</v>
+      </c>
+      <c r="E105" t="s">
+        <v>260</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>9259989080</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>4128</v>
+      </c>
+      <c r="D106" t="s">
+        <v>261</v>
+      </c>
+      <c r="E106" t="s">
+        <v>262</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>9837123538</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>4129</v>
+      </c>
+      <c r="D107" t="s">
+        <v>263</v>
+      </c>
+      <c r="E107" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>7060205455</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>4130</v>
+      </c>
+      <c r="D108" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" t="s">
+        <v>265</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>7300760190</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>4132</v>
+      </c>
+      <c r="D109" t="s">
+        <v>189</v>
+      </c>
+      <c r="E109" t="s">
+        <v>266</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109">
+        <v>8755908964</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>4133</v>
+      </c>
+      <c r="D110" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" t="s">
+        <v>268</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110">
+        <v>8077622124</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>4134</v>
+      </c>
+      <c r="D111" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111">
+        <v>9997403131</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>4135</v>
+      </c>
+      <c r="D112" t="s">
+        <v>269</v>
+      </c>
+      <c r="E112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112">
+        <v>9520333669</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>4136</v>
+      </c>
+      <c r="D113" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113">
+        <v>8650123829</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>4138</v>
+      </c>
+      <c r="D114" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114" t="s">
+        <v>274</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>9719645866</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>4139</v>
+      </c>
+      <c r="D115" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" t="s">
+        <v>276</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115">
+        <v>9720142005</v>
+      </c>
+      <c r="I115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>4140</v>
+      </c>
+      <c r="D116" t="s">
+        <v>277</v>
+      </c>
+      <c r="E116" t="s">
+        <v>278</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116">
+        <v>8954502799</v>
+      </c>
+      <c r="I116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>4141</v>
+      </c>
+      <c r="D117" t="s">
+        <v>279</v>
+      </c>
+      <c r="E117" t="s">
+        <v>280</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117">
+        <v>6397881510</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>4142</v>
+      </c>
+      <c r="D118" t="s">
+        <v>281</v>
+      </c>
+      <c r="E118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118">
+        <v>8006606325</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>4143</v>
+      </c>
+      <c r="D119" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" t="s">
+        <v>284</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119">
+        <v>8126506683</v>
+      </c>
+      <c r="I119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>4144</v>
+      </c>
+      <c r="D120" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" t="s">
+        <v>274</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120">
+        <v>8630728373</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>4145</v>
+      </c>
+      <c r="D121" t="s">
+        <v>286</v>
+      </c>
+      <c r="E121" t="s">
+        <v>287</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121">
+        <v>8958232513</v>
+      </c>
+      <c r="I121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>4146</v>
+      </c>
+      <c r="D122" t="s">
+        <v>288</v>
+      </c>
+      <c r="E122" t="s">
+        <v>289</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>9568554294</v>
+      </c>
+      <c r="I122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>4147</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>290</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>9759369845</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>4148</v>
+      </c>
+      <c r="D124" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" t="s">
+        <v>292</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>9719767282</v>
+      </c>
+      <c r="I124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>4253</v>
+      </c>
+      <c r="D125" t="s">
+        <v>293</v>
+      </c>
+      <c r="E125" t="s">
+        <v>294</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125">
+        <v>8077511294</v>
+      </c>
+      <c r="I125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>4254</v>
+      </c>
+      <c r="D126" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" t="s">
+        <v>296</v>
+      </c>
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>9758126041</v>
+      </c>
+      <c r="I126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>4280</v>
+      </c>
+      <c r="D127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" t="s">
+        <v>297</v>
+      </c>
+      <c r="F127" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>9557738600</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>4282</v>
+      </c>
+      <c r="D128" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" t="s">
+        <v>299</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>4283</v>
+      </c>
+      <c r="D129" t="s">
+        <v>300</v>
+      </c>
+      <c r="E129" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129">
+        <v>9627541445</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>4285</v>
+      </c>
+      <c r="D130" t="s">
+        <v>302</v>
+      </c>
+      <c r="E130" t="s">
+        <v>175</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130">
+        <v>9720040512</v>
+      </c>
+      <c r="I130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>4286</v>
+      </c>
+      <c r="D131" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" t="s">
+        <v>112</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131">
+        <v>9720021928</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>4288</v>
+      </c>
+      <c r="D132" t="s">
+        <v>303</v>
+      </c>
+      <c r="E132" t="s">
+        <v>304</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>4289</v>
+      </c>
+      <c r="D133" t="s">
+        <v>305</v>
+      </c>
+      <c r="E133" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>4290</v>
+      </c>
+      <c r="D134" t="s">
+        <v>307</v>
+      </c>
+      <c r="E134" t="s">
+        <v>308</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134">
+        <v>9897321352</v>
+      </c>
+      <c r="I134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>4291</v>
+      </c>
+      <c r="D135" t="s">
+        <v>309</v>
+      </c>
+      <c r="E135" t="s">
+        <v>310</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135">
+        <v>9634143364</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>4292</v>
+      </c>
+      <c r="D136" t="s">
+        <v>311</v>
+      </c>
+      <c r="E136" t="s">
+        <v>312</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136">
+        <v>8755908132</v>
+      </c>
+      <c r="I136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>4294</v>
+      </c>
+      <c r="D137" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" t="s">
+        <v>313</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137">
+        <v>9837314410</v>
+      </c>
+      <c r="I137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>4295</v>
+      </c>
+      <c r="D138" t="s">
+        <v>314</v>
+      </c>
+      <c r="E138" t="s">
+        <v>315</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138">
+        <v>9012911288</v>
+      </c>
+      <c r="I138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>4296</v>
+      </c>
+      <c r="D139" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" t="s">
+        <v>316</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139">
+        <v>8755910150</v>
+      </c>
+      <c r="I139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>4297</v>
+      </c>
+      <c r="D140" t="s">
+        <v>317</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140">
+        <v>8006591994</v>
+      </c>
+      <c r="I140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>4298</v>
+      </c>
+      <c r="D141" t="s">
+        <v>308</v>
+      </c>
+      <c r="E141" t="s">
+        <v>318</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141">
+        <v>9760492428</v>
+      </c>
+      <c r="I141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>4299</v>
+      </c>
+      <c r="D142" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" t="s">
+        <v>319</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>9759543538</v>
+      </c>
+      <c r="I142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>4300</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>320</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143">
+        <v>7466810947</v>
+      </c>
+      <c r="I143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>4301</v>
+      </c>
+      <c r="D144" t="s">
+        <v>236</v>
+      </c>
+      <c r="E144" t="s">
+        <v>237</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>9758873891</v>
+      </c>
+      <c r="I144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>4301</v>
+      </c>
+      <c r="D145" t="s">
+        <v>321</v>
+      </c>
+      <c r="E145" t="s">
+        <v>322</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>7300760912</v>
+      </c>
+      <c r="I145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>4302</v>
+      </c>
+      <c r="D146" t="s">
+        <v>323</v>
+      </c>
+      <c r="E146" t="s">
+        <v>324</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>8755534117</v>
+      </c>
+      <c r="I146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>4303</v>
+      </c>
+      <c r="D147" t="s">
+        <v>238</v>
+      </c>
+      <c r="E147" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>6398742025</v>
+      </c>
+      <c r="I147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>4303</v>
+      </c>
+      <c r="D148" t="s">
+        <v>123</v>
+      </c>
+      <c r="E148" t="s">
+        <v>325</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>9761617183</v>
+      </c>
+      <c r="I148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>4304</v>
+      </c>
+      <c r="D149" t="s">
+        <v>178</v>
+      </c>
+      <c r="E149" t="s">
+        <v>240</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>9759900928</v>
+      </c>
+      <c r="I149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>4304</v>
+      </c>
+      <c r="D150" t="s">
+        <v>326</v>
+      </c>
+      <c r="E150" t="s">
+        <v>327</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>9761333221</v>
+      </c>
+      <c r="I150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>4305</v>
+      </c>
+      <c r="D151" t="s">
+        <v>241</v>
+      </c>
+      <c r="E151" t="s">
+        <v>242</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151">
+        <v>9927250010</v>
+      </c>
+      <c r="I151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>4305</v>
+      </c>
+      <c r="D152" t="s">
+        <v>241</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152">
+        <v>8057634330</v>
+      </c>
+      <c r="I152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>4306</v>
+      </c>
+      <c r="D153" t="s">
+        <v>243</v>
+      </c>
+      <c r="E153" t="s">
+        <v>244</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>7037881421</v>
+      </c>
+      <c r="I153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>4306</v>
+      </c>
+      <c r="D154" t="s">
+        <v>243</v>
+      </c>
+      <c r="E154" t="s">
+        <v>328</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154">
+        <v>9536018015</v>
+      </c>
+      <c r="I154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>4307</v>
+      </c>
+      <c r="D155" t="s">
+        <v>245</v>
+      </c>
+      <c r="E155" t="s">
+        <v>246</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>7906511424</v>
+      </c>
+      <c r="I155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>4307</v>
+      </c>
+      <c r="D156" t="s">
+        <v>245</v>
+      </c>
+      <c r="E156" t="s">
+        <v>327</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156">
+        <v>9720470188</v>
+      </c>
+      <c r="I156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>4308</v>
+      </c>
+      <c r="D157" t="s">
+        <v>219</v>
+      </c>
+      <c r="E157" t="s">
+        <v>247</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>7037033066</v>
+      </c>
+      <c r="I157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>4308</v>
+      </c>
+      <c r="D158" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" t="s">
+        <v>329</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158">
+        <v>9058091610</v>
+      </c>
+      <c r="I158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>4309</v>
+      </c>
+      <c r="D159" t="s">
+        <v>248</v>
+      </c>
+      <c r="E159" t="s">
+        <v>249</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159">
+        <v>8630572290</v>
+      </c>
+      <c r="I159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>4309</v>
+      </c>
+      <c r="D160" t="s">
+        <v>248</v>
+      </c>
+      <c r="E160" t="s">
+        <v>330</v>
+      </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160">
+        <v>9756955820</v>
+      </c>
+      <c r="I160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>4310</v>
+      </c>
+      <c r="D161" t="s">
+        <v>250</v>
+      </c>
+      <c r="E161" t="s">
+        <v>251</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161">
+        <v>9058519262</v>
+      </c>
+      <c r="I161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>4310</v>
+      </c>
+      <c r="D162" t="s">
+        <v>250</v>
+      </c>
+      <c r="E162" t="s">
+        <v>331</v>
+      </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>9997286033</v>
+      </c>
+      <c r="I162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>4311</v>
+      </c>
+      <c r="D163" t="s">
+        <v>197</v>
+      </c>
+      <c r="E163" t="s">
+        <v>332</v>
+      </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>4312</v>
+      </c>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164" t="s">
+        <v>334</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164">
+        <v>7417400199</v>
+      </c>
+      <c r="I164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>4313</v>
+      </c>
+      <c r="D165" t="s">
+        <v>335</v>
+      </c>
+      <c r="E165" t="s">
+        <v>336</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165">
+        <v>9410467048</v>
+      </c>
+      <c r="I165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>4314</v>
+      </c>
+      <c r="D166" t="s">
+        <v>300</v>
+      </c>
+      <c r="E166" t="s">
+        <v>225</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166">
+        <v>8755506987</v>
+      </c>
+      <c r="I166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>4315</v>
+      </c>
+      <c r="D167" t="s">
+        <v>383</v>
+      </c>
+      <c r="E167" t="s">
+        <v>337</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167">
+        <v>7251911210</v>
+      </c>
+      <c r="I167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>4316</v>
+      </c>
+      <c r="D168" t="s">
+        <v>338</v>
+      </c>
+      <c r="E168" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168">
+        <v>9719697321</v>
+      </c>
+      <c r="I168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>4317</v>
+      </c>
+      <c r="D169" t="s">
+        <v>339</v>
+      </c>
+      <c r="E169" t="s">
+        <v>340</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169">
+        <v>8396954157</v>
+      </c>
+      <c r="I169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>4318</v>
+      </c>
+      <c r="D170" t="s">
+        <v>341</v>
+      </c>
+      <c r="E170" t="s">
+        <v>342</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>9761956979</v>
+      </c>
+      <c r="I170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>4319</v>
+      </c>
+      <c r="D171" t="s">
+        <v>343</v>
+      </c>
+      <c r="E171" t="s">
+        <v>344</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171">
+        <v>9368979003</v>
+      </c>
+      <c r="I171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>4320</v>
+      </c>
+      <c r="D172" t="s">
+        <v>346</v>
+      </c>
+      <c r="E172" t="s">
+        <v>345</v>
+      </c>
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172">
+        <v>8954218599</v>
+      </c>
+      <c r="I172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>4321</v>
+      </c>
+      <c r="D173" t="s">
+        <v>347</v>
+      </c>
+      <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173">
+        <v>9758827484</v>
+      </c>
+      <c r="I173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>4322</v>
+      </c>
+      <c r="D174" t="s">
+        <v>287</v>
+      </c>
+      <c r="E174" t="s">
+        <v>348</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174">
+        <v>9927272639</v>
+      </c>
+      <c r="I174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>4331</v>
+      </c>
+      <c r="D175" t="s">
+        <v>225</v>
+      </c>
+      <c r="E175" t="s">
+        <v>349</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175">
+        <v>9627541445</v>
+      </c>
+      <c r="I175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>4697</v>
+      </c>
+      <c r="D176" t="s">
+        <v>350</v>
+      </c>
+      <c r="E176" t="s">
+        <v>351</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>8755908707</v>
+      </c>
+      <c r="I176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>4698</v>
+      </c>
+      <c r="D177" t="s">
+        <v>352</v>
+      </c>
+      <c r="E177" t="s">
+        <v>153</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>9897231055</v>
+      </c>
+      <c r="I177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>4699</v>
+      </c>
+      <c r="D178" t="s">
+        <v>265</v>
+      </c>
+      <c r="E178" t="s">
+        <v>353</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178">
+        <v>8755908525</v>
+      </c>
+      <c r="I178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>4902</v>
+      </c>
+      <c r="D179" t="s">
+        <v>354</v>
+      </c>
+      <c r="E179" t="s">
+        <v>355</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179">
+        <v>9808165632</v>
+      </c>
+      <c r="I179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>4903</v>
+      </c>
+      <c r="D180" t="s">
+        <v>356</v>
+      </c>
+      <c r="E180" t="s">
+        <v>41</v>
+      </c>
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+      <c r="G180">
+        <v>8218188869</v>
+      </c>
+      <c r="I180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>4904</v>
+      </c>
+      <c r="D181" t="s">
+        <v>384</v>
+      </c>
+      <c r="E181" t="s">
+        <v>357</v>
+      </c>
+      <c r="F181" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181">
+        <v>8859152048</v>
+      </c>
+      <c r="I181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>4905</v>
+      </c>
+      <c r="D182" t="s">
+        <v>358</v>
+      </c>
+      <c r="E182" t="s">
+        <v>359</v>
+      </c>
+      <c r="F182" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182">
+        <v>9719562185</v>
+      </c>
+      <c r="I182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>4906</v>
+      </c>
+      <c r="D183" t="s">
+        <v>360</v>
+      </c>
+      <c r="E183" t="s">
+        <v>385</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>4907</v>
+      </c>
+      <c r="D184" t="s">
+        <v>386</v>
+      </c>
+      <c r="E184" t="s">
+        <v>387</v>
+      </c>
+      <c r="F184" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184">
+        <v>8279305646</v>
+      </c>
+      <c r="I184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>4908</v>
+      </c>
+      <c r="D185" t="s">
+        <v>388</v>
+      </c>
+      <c r="E185" t="s">
+        <v>361</v>
+      </c>
+      <c r="F185" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185">
+        <v>8057707657</v>
+      </c>
+      <c r="I185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>5049</v>
+      </c>
+      <c r="D186" t="s">
+        <v>362</v>
+      </c>
+      <c r="E186" t="s">
+        <v>363</v>
+      </c>
+      <c r="F186" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186">
+        <v>9758704898</v>
+      </c>
+      <c r="I186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>5050</v>
+      </c>
+      <c r="D187" t="s">
+        <v>328</v>
+      </c>
+      <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
+        <v>11</v>
+      </c>
+      <c r="G187">
+        <v>8006652981</v>
+      </c>
+      <c r="I187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>5193</v>
+      </c>
+      <c r="D188" t="s">
+        <v>365</v>
+      </c>
+      <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188">
+        <v>9368150367</v>
+      </c>
+      <c r="I188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>5198</v>
+      </c>
+      <c r="D189" t="s">
+        <v>367</v>
+      </c>
+      <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>7078208104</v>
+      </c>
+      <c r="I189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>5221</v>
+      </c>
+      <c r="D190" t="s">
+        <v>369</v>
+      </c>
+      <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>9897019260</v>
+      </c>
+      <c r="I190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>5222</v>
+      </c>
+      <c r="D191" t="s">
+        <v>371</v>
+      </c>
+      <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191">
+        <v>9897014260</v>
+      </c>
+      <c r="I191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>5223</v>
+      </c>
+      <c r="D192" t="s">
+        <v>373</v>
+      </c>
+      <c r="E192" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" t="s">
+        <v>11</v>
+      </c>
+      <c r="G192">
+        <v>7017838545</v>
+      </c>
+      <c r="I192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>5224</v>
+      </c>
+      <c r="D193" t="s">
+        <v>374</v>
+      </c>
+      <c r="E193" t="s">
+        <v>375</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193">
+        <v>9319521755</v>
+      </c>
+      <c r="I193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>5225</v>
+      </c>
+      <c r="D194" t="s">
+        <v>376</v>
+      </c>
+      <c r="E194" t="s">
+        <v>377</v>
+      </c>
+      <c r="F194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194">
+        <v>9837286633</v>
+      </c>
+      <c r="I194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>5265</v>
+      </c>
+      <c r="D195" t="s">
+        <v>378</v>
+      </c>
+      <c r="E195" t="s">
+        <v>379</v>
+      </c>
+      <c r="F195" t="s">
+        <v>11</v>
+      </c>
+      <c r="G195">
+        <v>9927682315</v>
+      </c>
+      <c r="I195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>5266</v>
+      </c>
+      <c r="D196" t="s">
+        <v>380</v>
+      </c>
+      <c r="E196" t="s">
+        <v>381</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196">
+        <v>8534945373</v>
+      </c>
+      <c r="I196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>5267</v>
+      </c>
+      <c r="D197" t="s">
+        <v>365</v>
+      </c>
+      <c r="E197" t="s">
+        <v>382</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197">
+        <v>9870763239</v>
+      </c>
+      <c r="I197" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I197">
+    <sortCondition ref="C1:C197"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7567B953-8876-4EE0-90A7-B3A65B6B3F6C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I1" sqref="I1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,7 +6698,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1488,8 +6708,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1499,8 +6725,14 @@
       <c r="C2">
         <v>9837142000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1510,8 +6742,14 @@
       <c r="C3">
         <v>7500780000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1521,8 +6759,14 @@
       <c r="C4">
         <v>9012135914</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1532,8 +6776,14 @@
       <c r="C5">
         <v>9837063189</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1543,8 +6793,14 @@
       <c r="C6">
         <v>9897780366</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1554,8 +6810,14 @@
       <c r="C7">
         <v>9837786892</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1565,8 +6827,14 @@
       <c r="C8">
         <v>9837420590</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1576,8 +6844,14 @@
       <c r="C9">
         <v>9557738600</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1587,8 +6861,14 @@
       <c r="C10">
         <v>8755908898</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1598,8 +6878,14 @@
       <c r="C11">
         <v>7300760533</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1609,8 +6895,14 @@
       <c r="C12">
         <v>8755908933</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1620,8 +6912,14 @@
       <c r="C13">
         <v>8755908911</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1631,8 +6929,14 @@
       <c r="C14">
         <v>9319399070</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1642,8 +6946,14 @@
       <c r="C15">
         <v>9897688914</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1653,8 +6963,14 @@
       <c r="C16">
         <v>9897368400</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1664,8 +6980,14 @@
       <c r="C17">
         <v>7455002012</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1675,8 +6997,14 @@
       <c r="C18">
         <v>7455002021</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1685,6 +7013,68 @@
       </c>
       <c r="C19">
         <v>8057815673</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
